--- a/biology/Zoologie/Clamorosaurus/Clamorosaurus.xlsx
+++ b/biology/Zoologie/Clamorosaurus/Clamorosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clamorosaurus est un genre fossile d'amphibiens temnospondyles de la famille Eryopidae. Selon Paleobiology Database, en 2022, ce genre est représenté par deux espèces, Clamorosaurus borealis et Clamorosaurus nocturnus.
 </t>
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des fossiles de Clamorosaurus borealis ont été trouvés dans la formation Inta (série de Vorkouta) en Russie. Ils sont datés d'il y a environ 272,5 millions d'années, soit pendant l'intervalle Ufimien du Permien. Deux espèces ont été nommées : C. borealis[1] et C. nocturnus[2].
-Clamorosaurus avait une longueur d'environ 23 cm. Les espaces dans l'os interptérygoïde de Clamorosaurus étaient arrondis à l'avant. Les narines externes étaient grandes. Ces deux traits sont des caractéristiques de tous les membres des Eryopidae[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des fossiles de Clamorosaurus borealis ont été trouvés dans la formation Inta (série de Vorkouta) en Russie. Ils sont datés d'il y a environ 272,5 millions d'années, soit pendant l'intervalle Ufimien du Permien. Deux espèces ont été nommées : C. borealis et C. nocturnus.
+Clamorosaurus avait une longueur d'environ 23 cm. Les espaces dans l'os interptérygoïde de Clamorosaurus étaient arrondis à l'avant. Les narines externes étaient grandes. Ces deux traits sont des caractéristiques de tous les membres des Eryopidae.
 </t>
         </is>
       </c>
